--- a/docs/medicationrequest-deqm.xlsx
+++ b/docs/medicationrequest-deqm.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="587">
   <si>
     <t>Path</t>
   </si>
@@ -330,52 +330,27 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/extension-doNotPerform}
-</t>
-  </si>
-  <si>
-    <t>true if request is prohibiting action</t>
-  </si>
-  <si>
-    <t>If true indicates that the request is asking for the specified action to not occur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>MedicationRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -383,9 +358,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -1094,13 +1066,17 @@
     <t>MedicationRequest.dosageInstruction.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2018,7 +1994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP84"/>
+  <dimension ref="A1:AP83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2028,7 +2004,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="59.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -3041,7 +3017,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3060,15 +3036,17 @@
         <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>46</v>
@@ -3105,14 +3083,16 @@
         <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>106</v>
@@ -3142,7 +3122,7 @@
         <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>46</v>
@@ -3151,25 +3131,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>107</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>57</v>
@@ -3178,16 +3156,20 @@
         <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>46</v>
       </c>
@@ -3235,7 +3217,7 @@
         <v>46</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -3244,10 +3226,10 @@
         <v>45</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>46</v>
@@ -3262,7 +3244,7 @@
         <v>46</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>46</v>
@@ -3273,11 +3255,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3290,26 +3272,24 @@
         <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>118</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>46</v>
       </c>
@@ -3357,7 +3337,7 @@
         <v>46</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -3378,24 +3358,24 @@
         <v>46</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>46</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3403,31 +3383,31 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3453,13 +3433,13 @@
         <v>46</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>46</v>
@@ -3477,13 +3457,13 @@
         <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>46</v>
@@ -3495,27 +3475,27 @@
         <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>129</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3523,31 +3503,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>56</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3573,34 +3553,34 @@
         <v>46</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="X13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="AF13" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>56</v>
@@ -3615,19 +3595,19 @@
         <v>46</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>46</v>
@@ -3635,7 +3615,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3643,7 +3623,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>56</v>
@@ -3652,22 +3632,22 @@
         <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3693,7 +3673,7 @@
         <v>46</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>148</v>
@@ -3717,10 +3697,10 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>56</v>
@@ -3732,30 +3712,30 @@
         <v>46</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3763,31 +3743,31 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3813,13 +3793,13 @@
         <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>46</v>
@@ -3837,13 +3817,13 @@
         <v>46</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>46</v>
@@ -3852,28 +3832,28 @@
         <v>46</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>162</v>
       </c>
@@ -3886,19 +3866,19 @@
         <v>44</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>163</v>
@@ -3906,9 +3886,7 @@
       <c r="L16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>46</v>
@@ -3933,10 +3911,10 @@
         <v>46</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s" s="2">
         <v>166</v>
@@ -3963,7 +3941,7 @@
         <v>44</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>46</v>
@@ -3972,28 +3950,28 @@
         <v>46</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AM16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AO16" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="AP16" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>170</v>
       </c>
@@ -4009,24 +3987,26 @@
         <v>56</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>46</v>
@@ -4051,13 +4031,13 @@
         <v>46</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>46</v>
@@ -4096,24 +4076,24 @@
         <v>46</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4127,26 +4107,24 @@
         <v>56</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -4195,7 +4173,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -4222,7 +4200,7 @@
         <v>46</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>46</v>
@@ -4233,7 +4211,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4241,7 +4219,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>56</v>
@@ -4256,15 +4234,17 @@
         <v>57</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>46</v>
@@ -4289,13 +4269,13 @@
         <v>46</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>46</v>
@@ -4313,10 +4293,10 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>56</v>
@@ -4328,30 +4308,30 @@
         <v>46</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>46</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4365,7 +4345,7 @@
         <v>56</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>46</v>
@@ -4374,16 +4354,16 @@
         <v>57</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4409,31 +4389,31 @@
         <v>46</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>56</v>
@@ -4448,30 +4428,30 @@
         <v>46</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4479,7 +4459,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>56</v>
@@ -4491,19 +4471,19 @@
         <v>46</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4553,10 +4533,10 @@
         <v>46</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>56</v>
@@ -4571,27 +4551,27 @@
         <v>46</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4602,10 +4582,10 @@
         <v>44</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>46</v>
@@ -4614,17 +4594,15 @@
         <v>46</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
         <v>217</v>
       </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>46</v>
@@ -4673,13 +4651,13 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>46</v>
@@ -4697,21 +4675,21 @@
         <v>218</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AO22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4719,28 +4697,28 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4791,13 +4769,13 @@
         <v>46</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>46</v>
@@ -4806,30 +4784,30 @@
         <v>46</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>46</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4852,13 +4830,13 @@
         <v>57</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4909,7 +4887,7 @@
         <v>46</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
@@ -4924,30 +4902,30 @@
         <v>46</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>237</v>
       </c>
       <c r="AP24" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
         <v>238</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4955,28 +4933,28 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>56</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5027,7 +5005,7 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -5045,19 +5023,19 @@
         <v>46</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>46</v>
@@ -5065,7 +5043,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5085,18 +5063,20 @@
         <v>46</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>46</v>
@@ -5121,13 +5101,13 @@
         <v>46</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>46</v>
@@ -5145,7 +5125,7 @@
         <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
@@ -5166,16 +5146,16 @@
         <v>46</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>46</v>
@@ -5203,20 +5183,18 @@
         <v>46</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M27" t="s" s="2">
         <v>256</v>
       </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -5241,13 +5219,13 @@
         <v>46</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>46</v>
@@ -5280,22 +5258,22 @@
         <v>46</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -5303,7 +5281,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5314,7 +5292,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>46</v>
@@ -5326,15 +5304,17 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5359,13 +5339,13 @@
         <v>46</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>46</v>
@@ -5383,13 +5363,13 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>46</v>
@@ -5398,30 +5378,30 @@
         <v>46</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>46</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5444,16 +5424,16 @@
         <v>46</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5479,31 +5459,31 @@
         <v>46</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5518,30 +5498,30 @@
         <v>46</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>274</v>
+        <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>279</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5561,20 +5541,18 @@
         <v>46</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>284</v>
-      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>46</v>
@@ -5623,7 +5601,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5644,16 +5622,16 @@
         <v>46</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5661,7 +5639,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5684,13 +5662,13 @@
         <v>57</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>288</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5741,7 +5719,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5762,13 +5740,13 @@
         <v>46</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>291</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>46</v>
@@ -5779,7 +5757,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5802,13 +5780,13 @@
         <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5859,7 +5837,7 @@
         <v>46</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5880,13 +5858,13 @@
         <v>46</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>46</v>
@@ -5897,7 +5875,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5908,7 +5886,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>46</v>
@@ -5920,16 +5898,18 @@
         <v>57</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>46</v>
       </c>
@@ -5977,13 +5957,13 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>46</v>
@@ -5998,13 +5978,13 @@
         <v>46</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>46</v>
@@ -6015,7 +5995,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6035,21 +6015,21 @@
         <v>46</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>46</v>
       </c>
@@ -6073,13 +6053,13 @@
         <v>46</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>46</v>
@@ -6097,7 +6077,7 @@
         <v>46</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -6118,13 +6098,13 @@
         <v>46</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>46</v>
@@ -6135,7 +6115,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6146,7 +6126,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>46</v>
@@ -6158,7 +6138,7 @@
         <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>309</v>
@@ -6166,9 +6146,7 @@
       <c r="L35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>311</v>
-      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>46</v>
@@ -6193,58 +6171,58 @@
         <v>46</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>46</v>
@@ -6255,7 +6233,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6278,13 +6256,13 @@
         <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6335,7 +6313,7 @@
         <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -6356,24 +6334,24 @@
         <v>46</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6387,7 +6365,7 @@
         <v>45</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>46</v>
@@ -6396,15 +6374,17 @@
         <v>46</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>46</v>
@@ -6453,7 +6433,7 @@
         <v>46</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6477,21 +6457,21 @@
         <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6502,10 +6482,10 @@
         <v>44</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>46</v>
@@ -6514,17 +6494,15 @@
         <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>46</v>
@@ -6573,13 +6551,13 @@
         <v>46</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>46</v>
@@ -6594,13 +6572,13 @@
         <v>46</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>333</v>
+        <v>46</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>46</v>
@@ -6611,18 +6589,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>46</v>
@@ -6634,15 +6612,17 @@
         <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>336</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>46</v>
@@ -6679,25 +6659,25 @@
         <v>46</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>46</v>
+        <v>335</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>46</v>
+        <v>336</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>46</v>
+        <v>337</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>46</v>
@@ -6718,7 +6698,7 @@
         <v>46</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>46</v>
@@ -6729,11 +6709,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6746,24 +6726,26 @@
         <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>46</v>
       </c>
@@ -6799,19 +6781,19 @@
         <v>46</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>344</v>
+        <v>46</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6838,7 +6820,7 @@
         <v>46</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>46</v>
@@ -6849,42 +6831,40 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>347</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>101</v>
+        <v>345</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>46</v>
@@ -6933,45 +6913,45 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AO41" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>46</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6985,7 +6965,7 @@
         <v>56</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>46</v>
@@ -6994,7 +6974,7 @@
         <v>57</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>353</v>
@@ -7080,18 +7060,18 @@
         <v>46</v>
       </c>
       <c r="AN42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AO42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP42" t="s" s="2">
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
         <v>358</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7102,10 +7082,10 @@
         <v>44</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>46</v>
@@ -7114,15 +7094,17 @@
         <v>57</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
         <v>362</v>
       </c>
@@ -7149,13 +7131,13 @@
         <v>46</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>46</v>
+        <v>363</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>46</v>
+        <v>364</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>46</v>
@@ -7173,13 +7155,13 @@
         <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>46</v>
@@ -7200,18 +7182,18 @@
         <v>46</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7222,7 +7204,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>46</v>
@@ -7234,20 +7216,16 @@
         <v>57</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N44" t="s" s="2">
         <v>369</v>
       </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>46</v>
       </c>
@@ -7271,37 +7249,37 @@
         <v>46</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>46</v>
@@ -7322,18 +7300,18 @@
         <v>46</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7356,16 +7334,20 @@
         <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>46</v>
       </c>
@@ -7428,7 +7410,7 @@
         <v>46</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>46</v>
+        <v>378</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>46</v>
@@ -7440,18 +7422,18 @@
         <v>46</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>373</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7474,20 +7456,18 @@
         <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>46</v>
       </c>
@@ -7511,13 +7491,13 @@
         <v>46</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>46</v>
+        <v>386</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>46</v>
@@ -7535,7 +7515,7 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7550,7 +7530,7 @@
         <v>46</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>385</v>
+        <v>46</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>46</v>
@@ -7562,18 +7542,18 @@
         <v>46</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>46</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7587,7 +7567,7 @@
         <v>56</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>46</v>
@@ -7596,18 +7576,20 @@
         <v>57</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>388</v>
+        <v>135</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>46</v>
       </c>
@@ -7631,13 +7613,13 @@
         <v>46</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>46</v>
@@ -7655,7 +7637,7 @@
         <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7682,18 +7664,18 @@
         <v>46</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7707,7 +7689,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>46</v>
@@ -7716,19 +7698,17 @@
         <v>57</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>46</v>
@@ -7753,13 +7733,13 @@
         <v>46</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>46</v>
@@ -7777,7 +7757,7 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
@@ -7792,7 +7772,7 @@
         <v>46</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>46</v>
+        <v>407</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>46</v>
@@ -7804,18 +7784,18 @@
         <v>46</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7838,17 +7818,19 @@
         <v>57</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>46</v>
@@ -7873,13 +7855,13 @@
         <v>46</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>46</v>
@@ -7897,7 +7879,7 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7912,7 +7894,7 @@
         <v>46</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>46</v>
@@ -7924,18 +7906,18 @@
         <v>46</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7946,7 +7928,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>46</v>
@@ -7958,20 +7940,16 @@
         <v>57</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>46</v>
       </c>
@@ -7995,13 +7973,13 @@
         <v>46</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>422</v>
+        <v>46</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>423</v>
+        <v>46</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>46</v>
@@ -8019,22 +7997,22 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>46</v>
+        <v>426</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>46</v>
@@ -8046,7 +8024,7 @@
         <v>46</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>426</v>
+        <v>46</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>46</v>
@@ -8068,7 +8046,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>46</v>
@@ -8077,16 +8055,16 @@
         <v>46</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>429</v>
+        <v>328</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>430</v>
+        <v>329</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>431</v>
+        <v>330</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8137,19 +8115,19 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>432</v>
+        <v>331</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>46</v>
@@ -8164,29 +8142,29 @@
         <v>46</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>434</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>46</v>
@@ -8198,15 +8176,17 @@
         <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>336</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>46</v>
@@ -8243,25 +8223,25 @@
         <v>46</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>46</v>
+        <v>335</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>46</v>
+        <v>336</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>46</v>
+        <v>337</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>46</v>
@@ -8282,7 +8262,7 @@
         <v>46</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>46</v>
@@ -8293,18 +8273,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>46</v>
@@ -8313,21 +8293,21 @@
         <v>46</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>46</v>
       </c>
@@ -8351,37 +8331,37 @@
         <v>46</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>46</v>
+        <v>434</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>46</v>
+        <v>435</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>344</v>
+        <v>46</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>345</v>
+        <v>436</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>46</v>
@@ -8402,18 +8382,18 @@
         <v>46</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>46</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8436,17 +8416,19 @@
         <v>57</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>143</v>
+        <v>439</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>46</v>
@@ -8471,13 +8453,13 @@
         <v>46</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>441</v>
+        <v>46</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>442</v>
+        <v>46</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>46</v>
@@ -8495,7 +8477,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8510,7 +8492,7 @@
         <v>46</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>46</v>
+        <v>445</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>46</v>
@@ -8522,18 +8504,18 @@
         <v>46</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>46</v>
+        <v>419</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8556,19 +8538,19 @@
         <v>57</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>46</v>
@@ -8617,7 +8599,7 @@
         <v>46</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
@@ -8632,7 +8614,7 @@
         <v>46</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>452</v>
+        <v>46</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>46</v>
@@ -8644,18 +8626,18 @@
         <v>46</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8678,19 +8660,19 @@
         <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>46</v>
@@ -8739,7 +8721,7 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
@@ -8766,18 +8748,18 @@
         <v>46</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8800,19 +8782,19 @@
         <v>57</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>46</v>
@@ -8861,7 +8843,7 @@
         <v>46</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>44</v>
@@ -8888,18 +8870,18 @@
         <v>46</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>471</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8922,7 +8904,7 @@
         <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>474</v>
@@ -8930,11 +8912,9 @@
       <c r="L58" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>46</v>
@@ -8983,7 +8963,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -9010,7 +8990,7 @@
         <v>46</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>46</v>
@@ -9019,9 +8999,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9035,27 +9015,25 @@
         <v>56</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>483</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>46</v>
       </c>
@@ -9103,7 +9081,7 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
@@ -9115,7 +9093,7 @@
         <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>46</v>
+        <v>426</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>46</v>
@@ -9127,10 +9105,10 @@
         <v>46</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>46</v>
+        <v>482</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>46</v>
@@ -9139,9 +9117,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9155,7 +9133,7 @@
         <v>56</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>46</v>
@@ -9164,13 +9142,13 @@
         <v>46</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>486</v>
+        <v>328</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>487</v>
+        <v>329</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>488</v>
+        <v>330</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9221,7 +9199,7 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>485</v>
+        <v>331</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
@@ -9233,7 +9211,7 @@
         <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>46</v>
@@ -9245,10 +9223,10 @@
         <v>46</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>489</v>
+        <v>46</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>490</v>
+        <v>332</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>46</v>
@@ -9259,18 +9237,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>46</v>
@@ -9282,15 +9260,17 @@
         <v>46</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>336</v>
+        <v>102</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>46</v>
@@ -9339,13 +9319,13 @@
         <v>46</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>46</v>
@@ -9366,7 +9346,7 @@
         <v>46</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>46</v>
@@ -9377,11 +9357,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9394,24 +9374,26 @@
         <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>46</v>
       </c>
@@ -9459,7 +9441,7 @@
         <v>46</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
@@ -9486,7 +9468,7 @@
         <v>46</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>46</v>
@@ -9497,43 +9479,41 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>347</v>
+        <v>46</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>479</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>348</v>
+        <v>488</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>349</v>
+        <v>489</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>46</v>
       </c>
@@ -9581,19 +9561,19 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>350</v>
+        <v>487</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>46</v>
+        <v>426</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>46</v>
@@ -9608,7 +9588,7 @@
         <v>46</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>99</v>
+        <v>491</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>46</v>
@@ -9619,7 +9599,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9642,17 +9622,15 @@
         <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>486</v>
+        <v>328</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>495</v>
+        <v>329</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>46</v>
@@ -9701,7 +9679,7 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>494</v>
+        <v>331</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>44</v>
@@ -9713,7 +9691,7 @@
         <v>46</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>46</v>
@@ -9728,7 +9706,7 @@
         <v>46</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>498</v>
+        <v>332</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>46</v>
@@ -9739,18 +9717,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>46</v>
@@ -9762,15 +9740,17 @@
         <v>46</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>336</v>
+        <v>102</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>46</v>
@@ -9819,13 +9799,13 @@
         <v>46</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>46</v>
@@ -9846,7 +9826,7 @@
         <v>46</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>46</v>
@@ -9857,11 +9837,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9874,24 +9854,26 @@
         <v>46</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>46</v>
       </c>
@@ -9939,7 +9921,7 @@
         <v>46</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>44</v>
@@ -9966,7 +9948,7 @@
         <v>46</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>46</v>
@@ -9977,43 +9959,39 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>347</v>
+        <v>46</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>101</v>
+        <v>466</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>348</v>
+        <v>496</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>46</v>
       </c>
@@ -10061,13 +10039,13 @@
         <v>46</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>350</v>
+        <v>495</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>46</v>
@@ -10088,7 +10066,7 @@
         <v>46</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>99</v>
+        <v>498</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>46</v>
@@ -10099,7 +10077,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10122,13 +10100,13 @@
         <v>46</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10179,7 +10157,7 @@
         <v>46</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>44</v>
@@ -10206,7 +10184,7 @@
         <v>46</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>46</v>
@@ -10217,7 +10195,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10240,13 +10218,13 @@
         <v>46</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10297,7 +10275,7 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
@@ -10324,7 +10302,7 @@
         <v>46</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>46</v>
@@ -10335,7 +10313,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10358,16 +10336,20 @@
         <v>46</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>46</v>
       </c>
@@ -10415,7 +10397,7 @@
         <v>46</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>44</v>
@@ -10430,7 +10412,7 @@
         <v>46</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>46</v>
+        <v>513</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>46</v>
@@ -10439,10 +10421,10 @@
         <v>46</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>46</v>
+        <v>514</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>46</v>
@@ -10453,7 +10435,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10476,20 +10458,18 @@
         <v>46</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>46</v>
       </c>
@@ -10537,7 +10517,7 @@
         <v>46</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>44</v>
@@ -10552,7 +10532,7 @@
         <v>46</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>520</v>
+        <v>46</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>46</v>
@@ -10570,12 +10550,12 @@
         <v>46</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>46</v>
+        <v>523</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10598,7 +10578,7 @@
         <v>46</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>524</v>
+        <v>466</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>525</v>
@@ -10606,9 +10586,7 @@
       <c r="L72" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>527</v>
-      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>46</v>
@@ -10657,7 +10635,7 @@
         <v>46</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>44</v>
@@ -10672,7 +10650,7 @@
         <v>46</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>46</v>
+        <v>527</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>46</v>
@@ -10718,7 +10696,7 @@
         <v>46</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>532</v>
@@ -10726,7 +10704,9 @@
       <c r="L73" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M73" s="2"/>
+      <c r="M73" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>46</v>
@@ -10790,7 +10770,7 @@
         <v>46</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>46</v>
@@ -10799,16 +10779,16 @@
         <v>46</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>537</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" hidden="true">
@@ -10836,17 +10816,15 @@
         <v>46</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M74" t="s" s="2">
         <v>541</v>
       </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>46</v>
@@ -10910,22 +10888,22 @@
         <v>46</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AK74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>544</v>
-      </c>
       <c r="AO74" t="s" s="2">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>46</v>
@@ -10933,7 +10911,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10956,13 +10934,13 @@
         <v>46</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11013,7 +10991,7 @@
         <v>46</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>44</v>
@@ -11025,7 +11003,7 @@
         <v>46</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>46</v>
+        <v>426</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>46</v>
@@ -11037,13 +11015,13 @@
         <v>46</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>46</v>
+        <v>546</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>46</v>
@@ -11051,7 +11029,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11074,13 +11052,13 @@
         <v>46</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>486</v>
+        <v>328</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>551</v>
+        <v>329</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>552</v>
+        <v>330</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11131,7 +11109,7 @@
         <v>46</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>550</v>
+        <v>331</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>44</v>
@@ -11143,7 +11121,7 @@
         <v>46</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>46</v>
@@ -11155,10 +11133,10 @@
         <v>46</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>553</v>
+        <v>46</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>554</v>
+        <v>332</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>46</v>
@@ -11169,18 +11147,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>46</v>
@@ -11192,15 +11170,17 @@
         <v>46</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>336</v>
+        <v>102</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>46</v>
@@ -11249,13 +11229,13 @@
         <v>46</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>46</v>
@@ -11276,7 +11256,7 @@
         <v>46</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>46</v>
@@ -11287,11 +11267,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11304,24 +11284,26 @@
         <v>46</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>46</v>
       </c>
@@ -11369,7 +11351,7 @@
         <v>46</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>44</v>
@@ -11396,7 +11378,7 @@
         <v>46</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>46</v>
@@ -11407,43 +11389,41 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>347</v>
+        <v>46</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>101</v>
+        <v>381</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>348</v>
+        <v>552</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>349</v>
+        <v>553</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>46</v>
       </c>
@@ -11467,13 +11447,13 @@
         <v>46</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>46</v>
+        <v>555</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>46</v>
+        <v>556</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>46</v>
@@ -11491,13 +11471,13 @@
         <v>46</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>350</v>
+        <v>551</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>46</v>
@@ -11515,21 +11495,21 @@
         <v>46</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>46</v>
+        <v>546</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>99</v>
+        <v>557</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>46</v>
+        <v>558</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11537,7 +11517,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>56</v>
@@ -11552,17 +11532,15 @@
         <v>46</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>388</v>
+        <v>135</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M80" t="s" s="2">
         <v>561</v>
       </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>46</v>
@@ -11587,7 +11565,7 @@
         <v>46</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="X80" t="s" s="2">
         <v>562</v>
@@ -11611,10 +11589,10 @@
         <v>46</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>56</v>
@@ -11635,21 +11613,21 @@
         <v>46</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11672,13 +11650,13 @@
         <v>46</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>143</v>
+        <v>568</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11705,13 +11683,13 @@
         <v>46</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>569</v>
+        <v>46</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>570</v>
+        <v>46</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>46</v>
@@ -11729,7 +11707,7 @@
         <v>46</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>44</v>
@@ -11750,10 +11728,10 @@
         <v>46</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>46</v>
+        <v>571</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>572</v>
@@ -11762,23 +11740,23 @@
         <v>46</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>573</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>46</v>
+        <v>574</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>46</v>
@@ -11798,7 +11776,9 @@
       <c r="L82" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M82" s="2"/>
+      <c r="M82" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>46</v>
@@ -11847,13 +11827,13 @@
         <v>46</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>46</v>
@@ -11868,10 +11848,10 @@
         <v>46</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>578</v>
+        <v>46</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>571</v>
+        <v>46</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>579</v>
@@ -11889,7 +11869,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>581</v>
+        <v>46</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11908,16 +11888,16 @@
         <v>46</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11988,7 +11968,7 @@
         <v>46</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>46</v>
+        <v>585</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>46</v>
@@ -12003,128 +11983,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AP84">
+  <autoFilter ref="A1:AP83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12134,7 +11994,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
